--- a/pmi/pmi_level.xlsx
+++ b/pmi/pmi_level.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L911"/>
+  <dimension ref="A1:L917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35045,59 +35045,287 @@
       <c r="A911" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B911" t="inlineStr">
+      <c r="B911" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C911" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="D911" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E911" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F911" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="G911" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="H911" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I911" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="J911" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="K911" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L911" t="n">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B912" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C912" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D912" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E912" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="F912" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="G912" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="H912" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="I912" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="J912" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K912" t="n">
+        <v>46</v>
+      </c>
+      <c r="L912" t="n">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B913" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C913" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D913" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="E913" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F913" t="n">
+        <v>47</v>
+      </c>
+      <c r="G913" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="H913" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="J913" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="K913" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="L913" t="n">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B914" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C914" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D914" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E914" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F914" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="G914" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="H914" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="I914" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J914" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="K914" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="L914" t="n">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B915" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C915" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="D915" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E915" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="F915" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="G915" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="H915" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="I915" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J915" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K915" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="L915" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B916" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C916" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="D916" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E916" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F916" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="G916" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="H916" t="n">
+        <v>44</v>
+      </c>
+      <c r="I916" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="J916" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K916" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="L916" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B917" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>49.2</t>
         </is>
       </c>
-      <c r="C911" t="inlineStr">
+      <c r="C917" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>49.1</t>
         </is>
       </c>
-      <c r="D911" t="inlineStr">
+      <c r="D917" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.3</t>
         </is>
       </c>
-      <c r="E911" t="inlineStr">
-        <is>
-          <t>46.8</t>
-        </is>
-      </c>
-      <c r="F911" t="inlineStr">
-        <is>
-          <t>47.7</t>
-        </is>
-      </c>
-      <c r="G911" t="inlineStr">
-        <is>
-          <t>43.3</t>
-        </is>
-      </c>
-      <c r="H911" t="inlineStr">
+      <c r="E917" t="inlineStr">
         <is>
           <t>48.6</t>
         </is>
       </c>
-      <c r="I911" t="inlineStr">
+      <c r="F917" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>48.9</t>
         </is>
       </c>
-      <c r="J911" t="inlineStr">
+      <c r="G917" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>48.2</t>
         </is>
       </c>
-      <c r="K911" t="inlineStr">
+      <c r="H917" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>47.8</t>
         </is>
       </c>
-      <c r="L911" t="inlineStr">
+      <c r="I917" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>60.9</t>
+        </is>
+      </c>
+      <c r="J917" t="inlineStr">
+        <is>
+          <t>45.4</t>
+        </is>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>48.7</t>
+        </is>
+      </c>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>51.9</t>
         </is>
       </c>
     </row>
